--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0005</t>
+          <t>1.0001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.16666666666667</t>
+          <t>1.4142135623731</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.02777777777778</t>
+          <t>4.44089209850063e-16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.83333333333333</t>
+          <t>0.414213562373095</t>
         </is>
       </c>
     </row>
@@ -507,105 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.89912280701754</t>
+          <t>1.4142135623731</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.6066674361342</t>
+          <t>4.44089209850063e-16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26754385964912</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.47612029496374</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.178931125203831</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.423002512053807</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.41551170980496</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.0036734005949488</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.0606085851587816</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.41421415763018</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.68364164609969e-06</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.0012975521747733</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.41421356237322</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3.5438318946034997e-13</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.95256961943846e-07</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
